--- a/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9913888083855734</v>
       </c>
       <c r="D13">
-        <v>0.9925452757136938</v>
+        <v>0.9925452757136934</v>
       </c>
       <c r="E13">
         <v>0.9920865509409902</v>
@@ -970,13 +970,13 @@
         <v>0.9907694661010822</v>
       </c>
       <c r="J13">
-        <v>0.9925452757136938</v>
+        <v>0.9925452757136934</v>
       </c>
       <c r="K13">
-        <v>0.992315913327342</v>
+        <v>0.9923159133273418</v>
       </c>
       <c r="L13">
-        <v>0.9918523608564577</v>
+        <v>0.9918523608564576</v>
       </c>
       <c r="M13">
         <v>0.9916627126394495</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9896785416536386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.365783696756323</v>
+      </c>
+      <c r="D16">
+        <v>0.9903387413958611</v>
+      </c>
+      <c r="E16">
+        <v>0.9629890908336594</v>
+      </c>
+      <c r="F16">
+        <v>1.365783696756323</v>
+      </c>
+      <c r="G16">
+        <v>0.9280892265155319</v>
+      </c>
+      <c r="H16">
+        <v>1.027240800069052</v>
+      </c>
+      <c r="I16">
+        <v>0.9858246838102366</v>
+      </c>
+      <c r="J16">
+        <v>0.9903387413958611</v>
+      </c>
+      <c r="K16">
+        <v>0.9766639161147602</v>
+      </c>
+      <c r="L16">
+        <v>1.171223806435542</v>
+      </c>
+      <c r="M16">
+        <v>1.043377706563444</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.365783696756323</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
@@ -955,7 +955,7 @@
         <v>0.9913888083855734</v>
       </c>
       <c r="D13">
-        <v>0.9925452757136934</v>
+        <v>0.9925452757136938</v>
       </c>
       <c r="E13">
         <v>0.9920865509409902</v>
@@ -973,13 +973,13 @@
         <v>0.9907694661010822</v>
       </c>
       <c r="J13">
-        <v>0.9925452757136934</v>
+        <v>0.9925452757136938</v>
       </c>
       <c r="K13">
-        <v>0.9923159133273418</v>
+        <v>0.992315913327342</v>
       </c>
       <c r="L13">
-        <v>0.9918523608564576</v>
+        <v>0.9918523608564577</v>
       </c>
       <c r="M13">
         <v>0.9916627126394495</v>

--- a/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/TRIP700F.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6302120000000012</v>
+        <v>1.365783696756323</v>
       </c>
       <c r="D10">
-        <v>1.511647999999999</v>
+        <v>0.9903387413958611</v>
       </c>
       <c r="E10">
-        <v>1.253792</v>
+        <v>0.9629890908336594</v>
       </c>
       <c r="F10">
-        <v>0.6302120000000012</v>
+        <v>1.365783696756323</v>
       </c>
       <c r="G10">
-        <v>0.8561760000000022</v>
+        <v>0.9280892265155319</v>
       </c>
       <c r="H10">
-        <v>2.292863999999998</v>
+        <v>1.027240800069052</v>
       </c>
       <c r="I10">
-        <v>0.8450080000000014</v>
+        <v>0.9858246838102366</v>
       </c>
       <c r="J10">
-        <v>1.511647999999999</v>
+        <v>0.9903387413958611</v>
       </c>
       <c r="K10">
-        <v>1.38272</v>
+        <v>0.9766639161147602</v>
       </c>
       <c r="L10">
-        <v>1.006466</v>
+        <v>1.171223806435542</v>
       </c>
       <c r="M10">
-        <v>1.231616666666667</v>
+        <v>1.043377706563444</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.53</v>
+        <v>0.8961986333795473</v>
       </c>
       <c r="D11">
-        <v>1.57</v>
+        <v>1.254961023718622</v>
       </c>
       <c r="E11">
-        <v>1.3908375</v>
+        <v>1.046019268251591</v>
       </c>
       <c r="F11">
-        <v>0.53</v>
+        <v>0.8961986333795473</v>
       </c>
       <c r="G11">
-        <v>0.73</v>
+        <v>0.971303013351804</v>
       </c>
       <c r="H11">
-        <v>3.03</v>
+        <v>1.336473345279914</v>
       </c>
       <c r="I11">
-        <v>0.82</v>
+        <v>0.9178414918968011</v>
       </c>
       <c r="J11">
-        <v>1.57</v>
+        <v>1.254961023718622</v>
       </c>
       <c r="K11">
-        <v>1.48041875</v>
+        <v>1.150490145985106</v>
       </c>
       <c r="L11">
-        <v>1.005209375</v>
+        <v>1.023344389682327</v>
       </c>
       <c r="M11">
-        <v>1.345139583333333</v>
+        <v>1.070466129313047</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7190331122688037</v>
+        <v>0.8947783052944712</v>
       </c>
       <c r="D12">
-        <v>1.312212428595201</v>
+        <v>1.256382987521428</v>
       </c>
       <c r="E12">
-        <v>1.214924963839999</v>
+        <v>1.046344523099104</v>
       </c>
       <c r="F12">
-        <v>0.7190331122688037</v>
+        <v>0.8947783052944712</v>
       </c>
       <c r="G12">
-        <v>0.8458885244928022</v>
+        <v>0.9716424719736005</v>
       </c>
       <c r="H12">
-        <v>2.119919032729602</v>
+        <v>1.336505847331915</v>
       </c>
       <c r="I12">
-        <v>0.8985033959424004</v>
+        <v>0.9173977525541462</v>
       </c>
       <c r="J12">
-        <v>1.312212428595201</v>
+        <v>1.256382987521428</v>
       </c>
       <c r="K12">
-        <v>1.2635686962176</v>
+        <v>1.151363755310266</v>
       </c>
       <c r="L12">
-        <v>0.9913009042432019</v>
+        <v>1.023071030302369</v>
       </c>
       <c r="M12">
-        <v>1.185080242978135</v>
+        <v>1.070508647962444</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9913888083855734</v>
+        <v>0.8959080918649804</v>
       </c>
       <c r="D13">
-        <v>0.9925452757136938</v>
+        <v>1.255006828845264</v>
       </c>
       <c r="E13">
-        <v>0.9920865509409902</v>
+        <v>1.046256086258649</v>
       </c>
       <c r="F13">
-        <v>0.9913888083855734</v>
+        <v>0.8959080918649804</v>
       </c>
       <c r="G13">
-        <v>0.9913043364302837</v>
+        <v>0.9713389922761362</v>
       </c>
       <c r="H13">
-        <v>0.9918818382650739</v>
+        <v>1.335853684638125</v>
       </c>
       <c r="I13">
-        <v>0.9907694661010822</v>
+        <v>0.9176591464410492</v>
       </c>
       <c r="J13">
-        <v>0.9925452757136938</v>
+        <v>1.255006828845264</v>
       </c>
       <c r="K13">
-        <v>0.992315913327342</v>
+        <v>1.150631457551957</v>
       </c>
       <c r="L13">
-        <v>0.9918523608564577</v>
+        <v>1.023269774708468</v>
       </c>
       <c r="M13">
-        <v>0.9916627126394495</v>
+        <v>1.070337138387367</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9680445568029361</v>
+        <v>0.6302120000000012</v>
       </c>
       <c r="D14">
-        <v>1.016363372835451</v>
+        <v>1.511647999999999</v>
       </c>
       <c r="E14">
-        <v>1.028268724266246</v>
+        <v>1.253792</v>
       </c>
       <c r="F14">
-        <v>0.9680445568029361</v>
+        <v>0.6302120000000012</v>
       </c>
       <c r="G14">
-        <v>0.9892676236450142</v>
+        <v>0.8561760000000022</v>
       </c>
       <c r="H14">
-        <v>1.043479420777296</v>
+        <v>2.292863999999998</v>
       </c>
       <c r="I14">
-        <v>0.9714744197450867</v>
+        <v>0.8450080000000014</v>
       </c>
       <c r="J14">
-        <v>1.016363372835451</v>
+        <v>1.511647999999999</v>
       </c>
       <c r="K14">
-        <v>1.022316048550849</v>
+        <v>1.38272</v>
       </c>
       <c r="L14">
-        <v>0.9951803026768924</v>
+        <v>1.006466</v>
       </c>
       <c r="M14">
-        <v>1.002816353012005</v>
+        <v>1.231616666666667</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9962711847450469</v>
+        <v>0.53</v>
       </c>
       <c r="D15">
-        <v>1.024484057118631</v>
+        <v>1.57</v>
       </c>
       <c r="E15">
-        <v>0.9800733797513054</v>
+        <v>1.3908375</v>
       </c>
       <c r="F15">
-        <v>0.9962711847450469</v>
+        <v>0.53</v>
       </c>
       <c r="G15">
-        <v>1.003022291033661</v>
+        <v>0.73</v>
       </c>
       <c r="H15">
-        <v>0.9493044161266583</v>
+        <v>3.03</v>
       </c>
       <c r="I15">
-        <v>0.9849159211465285</v>
+        <v>0.82</v>
       </c>
       <c r="J15">
-        <v>1.024484057118631</v>
+        <v>1.57</v>
       </c>
       <c r="K15">
-        <v>1.002278718434968</v>
+        <v>1.48041875</v>
       </c>
       <c r="L15">
-        <v>0.9992749515900076</v>
+        <v>1.005209375</v>
       </c>
       <c r="M15">
-        <v>0.9896785416536386</v>
+        <v>1.345139583333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.365783696756323</v>
+        <v>0.7190331122688037</v>
       </c>
       <c r="D16">
-        <v>0.9903387413958611</v>
+        <v>1.312212428595201</v>
       </c>
       <c r="E16">
-        <v>0.9629890908336594</v>
+        <v>1.214924963839999</v>
       </c>
       <c r="F16">
-        <v>1.365783696756323</v>
+        <v>0.7190331122688037</v>
       </c>
       <c r="G16">
-        <v>0.9280892265155319</v>
+        <v>0.8458885244928022</v>
       </c>
       <c r="H16">
-        <v>1.027240800069052</v>
+        <v>2.119919032729602</v>
       </c>
       <c r="I16">
-        <v>0.9858246838102366</v>
+        <v>0.8985033959424004</v>
       </c>
       <c r="J16">
-        <v>0.9903387413958611</v>
+        <v>1.312212428595201</v>
       </c>
       <c r="K16">
-        <v>0.9766639161147602</v>
+        <v>1.2635686962176</v>
       </c>
       <c r="L16">
-        <v>1.171223806435542</v>
+        <v>0.9913009042432019</v>
       </c>
       <c r="M16">
-        <v>1.043377706563444</v>
+        <v>1.185080242978135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9913888083855734</v>
+      </c>
+      <c r="D17">
+        <v>0.9925452757136934</v>
+      </c>
+      <c r="E17">
+        <v>0.9920865509409902</v>
+      </c>
+      <c r="F17">
+        <v>0.9913888083855734</v>
+      </c>
+      <c r="G17">
+        <v>0.9913043364302837</v>
+      </c>
+      <c r="H17">
+        <v>0.9918818382650739</v>
+      </c>
+      <c r="I17">
+        <v>0.9907694661010822</v>
+      </c>
+      <c r="J17">
+        <v>0.9925452757136934</v>
+      </c>
+      <c r="K17">
+        <v>0.9923159133273418</v>
+      </c>
+      <c r="L17">
+        <v>0.9918523608564576</v>
+      </c>
+      <c r="M17">
+        <v>0.9916627126394495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9680445568029361</v>
+      </c>
+      <c r="D18">
+        <v>1.016363372835451</v>
+      </c>
+      <c r="E18">
+        <v>1.028268724266246</v>
+      </c>
+      <c r="F18">
+        <v>0.9680445568029361</v>
+      </c>
+      <c r="G18">
+        <v>0.9892676236450142</v>
+      </c>
+      <c r="H18">
+        <v>1.043479420777296</v>
+      </c>
+      <c r="I18">
+        <v>0.9714744197450867</v>
+      </c>
+      <c r="J18">
+        <v>1.016363372835451</v>
+      </c>
+      <c r="K18">
+        <v>1.022316048550849</v>
+      </c>
+      <c r="L18">
+        <v>0.9951803026768924</v>
+      </c>
+      <c r="M18">
+        <v>1.002816353012005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9962711847450469</v>
+      </c>
+      <c r="D19">
+        <v>1.024484057118631</v>
+      </c>
+      <c r="E19">
+        <v>0.9800733797513054</v>
+      </c>
+      <c r="F19">
+        <v>0.9962711847450469</v>
+      </c>
+      <c r="G19">
+        <v>1.003022291033661</v>
+      </c>
+      <c r="H19">
+        <v>0.9493044161266583</v>
+      </c>
+      <c r="I19">
+        <v>0.9849159211465285</v>
+      </c>
+      <c r="J19">
+        <v>1.024484057118631</v>
+      </c>
+      <c r="K19">
+        <v>1.002278718434968</v>
+      </c>
+      <c r="L19">
+        <v>0.9992749515900076</v>
+      </c>
+      <c r="M19">
+        <v>0.9896785416536386</v>
       </c>
     </row>
   </sheetData>
